--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220508_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220508_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="260">
   <si>
     <t>사이트</t>
   </si>
@@ -3022,6 +3022,12 @@
       <c r="F72" t="s">
         <v>80</v>
       </c>
+      <c r="G72" t="s">
+        <v>231</v>
+      </c>
+      <c r="H72" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220508_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220508_110800.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-05-08</t>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220508_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220508_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="261">
   <si>
     <t>사이트</t>
   </si>
@@ -785,6 +785,9 @@
   </si>
   <si>
     <t>플렉스엠</t>
+  </si>
+  <si>
+    <t>285</t>
   </si>
   <si>
     <t>SSK</t>
@@ -1206,7 +1209,7 @@
         <v>222</v>
       </c>
       <c r="H2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1258,7 +1261,7 @@
         <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1284,7 +1287,7 @@
         <v>225</v>
       </c>
       <c r="H5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1336,7 +1339,7 @@
         <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1362,7 +1365,7 @@
         <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1388,7 +1391,7 @@
         <v>222</v>
       </c>
       <c r="H9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1414,7 +1417,7 @@
         <v>229</v>
       </c>
       <c r="H10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1440,7 +1443,7 @@
         <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1466,7 +1469,7 @@
         <v>230</v>
       </c>
       <c r="H12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1492,7 +1495,7 @@
         <v>231</v>
       </c>
       <c r="H13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1518,7 +1521,7 @@
         <v>232</v>
       </c>
       <c r="H14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1544,7 +1547,7 @@
         <v>222</v>
       </c>
       <c r="H15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1570,7 +1573,7 @@
         <v>233</v>
       </c>
       <c r="H16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1596,7 +1599,7 @@
         <v>228</v>
       </c>
       <c r="H17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1674,7 +1677,7 @@
         <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1700,7 +1703,7 @@
         <v>222</v>
       </c>
       <c r="H21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1726,7 +1729,7 @@
         <v>224</v>
       </c>
       <c r="H22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1752,7 +1755,7 @@
         <v>237</v>
       </c>
       <c r="H23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1778,7 +1781,7 @@
         <v>227</v>
       </c>
       <c r="H24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1804,7 +1807,7 @@
         <v>238</v>
       </c>
       <c r="H25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1830,7 +1833,7 @@
         <v>236</v>
       </c>
       <c r="H26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1856,7 +1859,7 @@
         <v>222</v>
       </c>
       <c r="H27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1882,7 +1885,7 @@
         <v>239</v>
       </c>
       <c r="H28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1908,7 +1911,7 @@
         <v>224</v>
       </c>
       <c r="H29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1934,7 +1937,7 @@
         <v>228</v>
       </c>
       <c r="H30" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1960,7 +1963,7 @@
         <v>222</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1986,7 +1989,7 @@
         <v>231</v>
       </c>
       <c r="H32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2038,7 +2041,7 @@
         <v>240</v>
       </c>
       <c r="H34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2064,7 +2067,7 @@
         <v>241</v>
       </c>
       <c r="H35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2090,7 +2093,7 @@
         <v>238</v>
       </c>
       <c r="H36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2142,7 +2145,7 @@
         <v>233</v>
       </c>
       <c r="H38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2194,7 +2197,7 @@
         <v>242</v>
       </c>
       <c r="H40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2220,7 +2223,7 @@
         <v>231</v>
       </c>
       <c r="H41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2246,7 +2249,7 @@
         <v>233</v>
       </c>
       <c r="H42" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2272,7 +2275,7 @@
         <v>238</v>
       </c>
       <c r="H43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2298,7 +2301,7 @@
         <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2324,7 +2327,7 @@
         <v>243</v>
       </c>
       <c r="H45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2350,7 +2353,7 @@
         <v>244</v>
       </c>
       <c r="H46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2402,7 +2405,7 @@
         <v>231</v>
       </c>
       <c r="H48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2480,7 +2483,7 @@
         <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2506,7 +2509,7 @@
         <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2532,7 +2535,7 @@
         <v>231</v>
       </c>
       <c r="H53" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2558,7 +2561,7 @@
         <v>245</v>
       </c>
       <c r="H54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2610,7 +2613,7 @@
         <v>246</v>
       </c>
       <c r="H56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2636,7 +2639,7 @@
         <v>243</v>
       </c>
       <c r="H57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2714,7 +2717,7 @@
         <v>247</v>
       </c>
       <c r="H60" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2818,7 +2821,7 @@
         <v>222</v>
       </c>
       <c r="H64" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2844,7 +2847,7 @@
         <v>249</v>
       </c>
       <c r="H65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2896,7 +2899,7 @@
         <v>251</v>
       </c>
       <c r="H67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2922,7 +2925,7 @@
         <v>252</v>
       </c>
       <c r="H68" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2974,7 +2977,7 @@
         <v>253</v>
       </c>
       <c r="H70" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3000,7 +3003,7 @@
         <v>254</v>
       </c>
       <c r="H71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3026,7 +3029,7 @@
         <v>231</v>
       </c>
       <c r="H72" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3052,7 +3055,7 @@
         <v>255</v>
       </c>
       <c r="H73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3104,7 +3107,7 @@
         <v>243</v>
       </c>
       <c r="H75" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3130,7 +3133,7 @@
         <v>233</v>
       </c>
       <c r="H76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3156,7 +3159,7 @@
         <v>231</v>
       </c>
       <c r="H77" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3182,7 +3185,7 @@
         <v>238</v>
       </c>
       <c r="H78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3208,7 +3211,7 @@
         <v>256</v>
       </c>
       <c r="H79" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3234,7 +3237,7 @@
         <v>231</v>
       </c>
       <c r="H80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3312,7 +3315,7 @@
         <v>231</v>
       </c>
       <c r="H83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3338,7 +3341,7 @@
         <v>243</v>
       </c>
       <c r="H84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3390,7 +3393,7 @@
         <v>243</v>
       </c>
       <c r="H86" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3412,11 +3415,11 @@
       <c r="F87" t="s">
         <v>214</v>
       </c>
-      <c r="G87">
-        <v>285</v>
+      <c r="G87" t="s">
+        <v>257</v>
       </c>
       <c r="H87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3465,10 +3468,10 @@
         <v>215</v>
       </c>
       <c r="G89" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3494,7 +3497,7 @@
         <v>232</v>
       </c>
       <c r="H90" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3520,7 +3523,7 @@
         <v>238</v>
       </c>
       <c r="H91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3572,7 +3575,7 @@
         <v>245</v>
       </c>
       <c r="H93" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3598,7 +3601,7 @@
         <v>238</v>
       </c>
       <c r="H94" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3621,10 +3624,10 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H95" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3647,10 +3650,10 @@
         <v>219</v>
       </c>
       <c r="G96" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H96" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3676,7 +3679,7 @@
         <v>233</v>
       </c>
       <c r="H97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3702,7 +3705,7 @@
         <v>243</v>
       </c>
       <c r="H98" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3728,7 +3731,7 @@
         <v>233</v>
       </c>
       <c r="H99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3754,7 +3757,7 @@
         <v>238</v>
       </c>
       <c r="H100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3780,7 +3783,7 @@
         <v>222</v>
       </c>
       <c r="H101" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220508_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220508_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="260">
   <si>
     <t>사이트</t>
   </si>
@@ -715,7 +715,7 @@
     <t>매직스트로베리 사운드</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SM</t>
@@ -794,9 +794,6 @@
   </si>
   <si>
     <t>neuron music</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1206,7 @@
         <v>222</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1261,7 +1258,7 @@
         <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1287,7 +1284,7 @@
         <v>225</v>
       </c>
       <c r="H5" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1339,7 +1336,7 @@
         <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1365,7 +1362,7 @@
         <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1391,7 +1388,7 @@
         <v>222</v>
       </c>
       <c r="H9" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1417,7 +1414,7 @@
         <v>229</v>
       </c>
       <c r="H10" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1443,7 +1440,7 @@
         <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1469,7 +1466,7 @@
         <v>230</v>
       </c>
       <c r="H12" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1495,7 +1492,7 @@
         <v>231</v>
       </c>
       <c r="H13" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1521,7 +1518,7 @@
         <v>232</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1547,7 +1544,7 @@
         <v>222</v>
       </c>
       <c r="H15" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1573,7 +1570,7 @@
         <v>233</v>
       </c>
       <c r="H16" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1599,7 +1596,7 @@
         <v>228</v>
       </c>
       <c r="H17" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1677,7 +1674,7 @@
         <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1703,7 +1700,7 @@
         <v>222</v>
       </c>
       <c r="H21" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1729,7 +1726,7 @@
         <v>224</v>
       </c>
       <c r="H22" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1755,7 +1752,7 @@
         <v>237</v>
       </c>
       <c r="H23" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1781,7 +1778,7 @@
         <v>227</v>
       </c>
       <c r="H24" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1807,7 +1804,7 @@
         <v>238</v>
       </c>
       <c r="H25" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1833,7 +1830,7 @@
         <v>236</v>
       </c>
       <c r="H26" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1859,7 +1856,7 @@
         <v>222</v>
       </c>
       <c r="H27" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1885,7 +1882,7 @@
         <v>239</v>
       </c>
       <c r="H28" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1911,7 +1908,7 @@
         <v>224</v>
       </c>
       <c r="H29" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1937,7 +1934,7 @@
         <v>228</v>
       </c>
       <c r="H30" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1963,7 +1960,7 @@
         <v>222</v>
       </c>
       <c r="H31" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1989,7 +1986,7 @@
         <v>231</v>
       </c>
       <c r="H32" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2041,7 +2038,7 @@
         <v>240</v>
       </c>
       <c r="H34" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2067,7 +2064,7 @@
         <v>241</v>
       </c>
       <c r="H35" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2093,7 +2090,7 @@
         <v>238</v>
       </c>
       <c r="H36" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2145,7 +2142,7 @@
         <v>233</v>
       </c>
       <c r="H38" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2197,7 +2194,7 @@
         <v>242</v>
       </c>
       <c r="H40" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2223,7 +2220,7 @@
         <v>231</v>
       </c>
       <c r="H41" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2249,7 +2246,7 @@
         <v>233</v>
       </c>
       <c r="H42" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2275,7 +2272,7 @@
         <v>238</v>
       </c>
       <c r="H43" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2301,7 +2298,7 @@
         <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2327,7 +2324,7 @@
         <v>243</v>
       </c>
       <c r="H45" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2353,7 +2350,7 @@
         <v>244</v>
       </c>
       <c r="H46" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2405,7 +2402,7 @@
         <v>231</v>
       </c>
       <c r="H48" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2483,7 +2480,7 @@
         <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2509,7 +2506,7 @@
         <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2535,7 +2532,7 @@
         <v>231</v>
       </c>
       <c r="H53" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2561,7 +2558,7 @@
         <v>245</v>
       </c>
       <c r="H54" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2613,7 +2610,7 @@
         <v>246</v>
       </c>
       <c r="H56" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2639,7 +2636,7 @@
         <v>243</v>
       </c>
       <c r="H57" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2717,7 +2714,7 @@
         <v>247</v>
       </c>
       <c r="H60" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2821,7 +2818,7 @@
         <v>222</v>
       </c>
       <c r="H64" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2847,7 +2844,7 @@
         <v>249</v>
       </c>
       <c r="H65" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2899,7 +2896,7 @@
         <v>251</v>
       </c>
       <c r="H67" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2925,7 +2922,7 @@
         <v>252</v>
       </c>
       <c r="H68" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2977,7 +2974,7 @@
         <v>253</v>
       </c>
       <c r="H70" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3003,7 +3000,7 @@
         <v>254</v>
       </c>
       <c r="H71" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3029,7 +3026,7 @@
         <v>231</v>
       </c>
       <c r="H72" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3055,7 +3052,7 @@
         <v>255</v>
       </c>
       <c r="H73" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3107,7 +3104,7 @@
         <v>243</v>
       </c>
       <c r="H75" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3133,7 +3130,7 @@
         <v>233</v>
       </c>
       <c r="H76" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3159,7 +3156,7 @@
         <v>231</v>
       </c>
       <c r="H77" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3185,7 +3182,7 @@
         <v>238</v>
       </c>
       <c r="H78" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3211,7 +3208,7 @@
         <v>256</v>
       </c>
       <c r="H79" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3237,7 +3234,7 @@
         <v>231</v>
       </c>
       <c r="H80" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3315,7 +3312,7 @@
         <v>231</v>
       </c>
       <c r="H83" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3341,7 +3338,7 @@
         <v>243</v>
       </c>
       <c r="H84" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3393,7 +3390,7 @@
         <v>243</v>
       </c>
       <c r="H86" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3419,7 +3416,7 @@
         <v>257</v>
       </c>
       <c r="H87" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3471,7 +3468,7 @@
         <v>258</v>
       </c>
       <c r="H89" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3497,7 +3494,7 @@
         <v>232</v>
       </c>
       <c r="H90" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3523,7 +3520,7 @@
         <v>238</v>
       </c>
       <c r="H91" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3575,7 +3572,7 @@
         <v>245</v>
       </c>
       <c r="H93" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3601,7 +3598,7 @@
         <v>238</v>
       </c>
       <c r="H94" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3627,7 +3624,7 @@
         <v>259</v>
       </c>
       <c r="H95" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3653,7 +3650,7 @@
         <v>259</v>
       </c>
       <c r="H96" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3679,7 +3676,7 @@
         <v>233</v>
       </c>
       <c r="H97" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3705,7 +3702,7 @@
         <v>243</v>
       </c>
       <c r="H98" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3731,7 +3728,7 @@
         <v>233</v>
       </c>
       <c r="H99" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3757,7 +3754,7 @@
         <v>238</v>
       </c>
       <c r="H100" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3783,7 +3780,7 @@
         <v>222</v>
       </c>
       <c r="H101" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
